--- a/02-2023 Instacart Basket Analysis/05 Send to Client/A4_final_report_Lindsey_Young.xlsx
+++ b/02-2023 Instacart Basket Analysis/05 Send to Client/A4_final_report_Lindsey_Young.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8c8132f38a7801b/Data Analytics/02-2023 Instacart Basket Analysis/05 Send to Client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1340" documentId="8_{6D4A3AFB-E60F-438C-8915-C8DE78C8DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1663A8D-FE02-4527-9B09-4F003F2AF857}"/>
+  <xr:revisionPtr revIDLastSave="1344" documentId="8_{6D4A3AFB-E60F-438C-8915-C8DE78C8DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{944A9400-A20D-4DE8-A91B-447DFF82EF31}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2480,6 +2480,18 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2722,18 +2734,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21869,7 +21869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="Y1:Y6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="69" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -21936,112 +21936,112 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="70" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="74" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="72" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -22108,7 +22108,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" thickTop="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="18"/>
@@ -22121,7 +22121,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6">
-      <c r="A8" s="72"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23" t="s">
         <v>29</v>
@@ -22132,35 +22132,35 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6">
-      <c r="A9" s="72"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="26"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="72"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="26"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="72"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="26"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="72"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="64"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="72"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="64" t="s">
         <v>176</v>
       </c>
@@ -22169,7 +22169,7 @@
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="15.6">
-      <c r="A14" s="72"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="26"/>
       <c r="C14" s="23"/>
       <c r="D14" s="46" t="s">
@@ -22178,7 +22178,7 @@
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="15.6">
-      <c r="A15" s="72"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="26"/>
       <c r="C15" s="23"/>
       <c r="D15" s="46" t="s">
@@ -22187,35 +22187,35 @@
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="15.6">
-      <c r="A16" s="72"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="26"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="15.6">
-      <c r="A17" s="72"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="26"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="15.6">
-      <c r="A18" s="72"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="26"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="15.6">
-      <c r="A19" s="72"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="26"/>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A20" s="73"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -22241,7 +22241,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="34"/>
@@ -22250,97 +22250,97 @@
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="74"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="37"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="74"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="41"/>
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="74"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="41"/>
       <c r="C28" s="38"/>
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="74"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="41"/>
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
       <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="74"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="41"/>
       <c r="C30" s="38"/>
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="74"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="41"/>
       <c r="C31" s="38"/>
       <c r="D31" s="39"/>
       <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="74"/>
-      <c r="B32" s="147" t="s">
+      <c r="A32" s="78"/>
+      <c r="B32" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="149" t="s">
+      <c r="D32" s="68" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="74"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="41"/>
       <c r="C33" s="38"/>
       <c r="D33" s="39"/>
       <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="74"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="41"/>
       <c r="C34" s="38"/>
       <c r="D34" s="39"/>
       <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="74"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="41"/>
       <c r="C35" s="38"/>
       <c r="D35" s="39"/>
       <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="74"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="41"/>
       <c r="C36" s="38"/>
       <c r="D36" s="39"/>
       <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="74"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="41"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
       <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1">
-      <c r="A38" s="75"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="42"/>
       <c r="C38" s="43"/>
       <c r="D38" s="44"/>
@@ -22366,7 +22366,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.2" thickTop="1">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="75" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="18"/>
@@ -22379,7 +22379,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.6">
-      <c r="A45" s="74"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23" t="s">
         <v>72</v>
@@ -22390,7 +22390,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.6">
-      <c r="A46" s="74"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="26"/>
       <c r="C46" s="23" t="s">
         <v>74</v>
@@ -22401,7 +22401,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.6">
-      <c r="A47" s="74"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="26"/>
       <c r="C47" s="23" t="s">
         <v>75</v>
@@ -22412,7 +22412,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6">
-      <c r="A48" s="74"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="26"/>
       <c r="C48" s="23" t="s">
         <v>76</v>
@@ -22423,7 +22423,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.6">
-      <c r="A49" s="74"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="26"/>
       <c r="C49" s="23" t="s">
         <v>77</v>
@@ -22434,14 +22434,14 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.6">
-      <c r="A50" s="74"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="64" t="s">
         <v>176</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="148" t="s">
+      <c r="D50" s="67" t="s">
         <v>177</v>
       </c>
       <c r="E50" s="25" t="s">
@@ -22449,49 +22449,49 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6">
-      <c r="A51" s="74"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="26"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24"/>
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="15.6">
-      <c r="A52" s="74"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="26"/>
       <c r="C52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5" ht="15.6">
-      <c r="A53" s="74"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="26"/>
       <c r="C53" s="23"/>
       <c r="D53" s="24"/>
       <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5" ht="15.6">
-      <c r="A54" s="74"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="26"/>
       <c r="C54" s="23"/>
       <c r="D54" s="24"/>
       <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5" ht="15.6">
-      <c r="A55" s="74"/>
+      <c r="A55" s="78"/>
       <c r="B55" s="26"/>
       <c r="C55" s="23"/>
       <c r="D55" s="24"/>
       <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:5" ht="15.6">
-      <c r="A56" s="74"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="26"/>
       <c r="C56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A57" s="75"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
@@ -22551,13 +22551,13 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" thickTop="1">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="98" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -22565,27 +22565,27 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="92"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15" thickBot="1">
-      <c r="B9" s="92"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="92"/>
-      <c r="C10" s="100" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -22593,27 +22593,27 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="92"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15" thickBot="1">
-      <c r="B12" s="92"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="90"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="92"/>
-      <c r="C13" s="100" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -22621,27 +22621,27 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="92"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="89"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15" thickBot="1">
-      <c r="B15" s="92"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="90"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="92"/>
-      <c r="C16" s="85" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="92" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -22649,29 +22649,29 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="92"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="89"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1">
-      <c r="B18" s="93"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="90"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="113" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="47" t="s">
@@ -22679,27 +22679,27 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="103"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="109"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickBot="1">
-      <c r="B21" s="103"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="110"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="103"/>
-      <c r="C22" s="111" t="s">
+      <c r="B22" s="107"/>
+      <c r="C22" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="118" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -22707,25 +22707,25 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="103"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="105" t="s">
+      <c r="B23" s="107"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="109" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="103"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="110"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="103"/>
-      <c r="C25" s="117" t="s">
+      <c r="B25" s="107"/>
+      <c r="C25" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="118" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="48" t="s">
@@ -22733,29 +22733,29 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="103"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="115"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1">
-      <c r="B27" s="104"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="116"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="80" t="s">
         <v>85</v>
       </c>
       <c r="E28" s="49" t="s">
@@ -22763,35 +22763,35 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="83"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="80"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="50" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="83"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="80"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="50" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15" thickBot="1">
-      <c r="B31" s="83"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="77"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="83"/>
-      <c r="C32" s="78" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="80" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="49" t="s">
@@ -22799,19 +22799,19 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="15" thickBot="1">
-      <c r="B33" s="83"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="51" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="83"/>
-      <c r="C34" s="78" t="s">
+      <c r="B34" s="87"/>
+      <c r="C34" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="49" t="s">
@@ -22819,27 +22819,27 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="83"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="80"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="50" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" thickBot="1">
-      <c r="B36" s="83"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="51" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="83"/>
-      <c r="C37" s="78" t="s">
+      <c r="B37" s="87"/>
+      <c r="C37" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="80" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="49" t="s">
@@ -22847,27 +22847,27 @@
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="83"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="80"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="50" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1">
-      <c r="B39" s="83"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="77"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="51" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="83"/>
-      <c r="C40" s="78" t="s">
+      <c r="B40" s="87"/>
+      <c r="C40" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="80" t="s">
         <v>103</v>
       </c>
       <c r="E40" s="49" t="s">
@@ -22875,27 +22875,27 @@
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="83"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="80"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="84"/>
       <c r="E41" s="50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15" thickBot="1">
-      <c r="B42" s="83"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="77"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="81"/>
       <c r="E42" s="51" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="83"/>
-      <c r="C43" s="78" t="s">
+      <c r="B43" s="87"/>
+      <c r="C43" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="80" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="49" t="s">
@@ -22903,43 +22903,43 @@
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="83"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="80"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="50" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="83"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="80"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="50" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="83"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="80"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="50" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="15" thickBot="1">
-      <c r="B47" s="83"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="77"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="81"/>
       <c r="E47" s="51" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="83"/>
-      <c r="C48" s="78" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="76" t="s">
+      <c r="D48" s="80" t="s">
         <v>115</v>
       </c>
       <c r="E48" s="53" t="s">
@@ -22947,19 +22947,19 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="15" thickBot="1">
-      <c r="B49" s="83"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="77"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="51" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="83"/>
-      <c r="C50" s="78" t="s">
+      <c r="B50" s="87"/>
+      <c r="C50" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="76" t="s">
+      <c r="D50" s="80" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="53" t="s">
@@ -22967,19 +22967,19 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="15" thickBot="1">
-      <c r="B51" s="83"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="77"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="51" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="83"/>
-      <c r="C52" s="78" t="s">
+      <c r="B52" s="87"/>
+      <c r="C52" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="80" t="s">
         <v>115</v>
       </c>
       <c r="E52" s="53" t="s">
@@ -22987,19 +22987,19 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="15" thickBot="1">
-      <c r="B53" s="83"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="77"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="81"/>
       <c r="E53" s="51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="83"/>
-      <c r="C54" s="78" t="s">
+      <c r="B54" s="87"/>
+      <c r="C54" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="76" t="s">
+      <c r="D54" s="80" t="s">
         <v>115</v>
       </c>
       <c r="E54" s="49" t="s">
@@ -23007,9 +23007,9 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="15" thickBot="1">
-      <c r="B55" s="84"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="77"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="51" t="s">
         <v>126</v>
       </c>
@@ -23068,8 +23068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:T356"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q95" sqref="Q95"/>
+    <sheetView showGridLines="0" topLeftCell="A323" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -23238,8 +23238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:Z27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -23254,943 +23254,943 @@
       </c>
     </row>
     <row r="11" spans="2:27">
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="130" t="s">
+      <c r="C11" s="131"/>
+      <c r="D11" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="132"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="136"/>
     </row>
     <row r="12" spans="2:27" ht="25.8" customHeight="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="135"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="139"/>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="143" t="s">
+      <c r="C13" s="125"/>
+      <c r="D13" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="143"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="143"/>
-      <c r="Y13" s="143"/>
-      <c r="Z13" s="143"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
       <c r="AA13" s="63"/>
     </row>
     <row r="14" spans="2:27">
-      <c r="B14" s="122"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
-      <c r="W14" s="143"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="143"/>
-      <c r="Z14" s="143"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
       <c r="AA14" s="63"/>
     </row>
     <row r="15" spans="2:27">
-      <c r="B15" s="122"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="143"/>
-      <c r="Z15" s="143"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
       <c r="AA15" s="63"/>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="145" t="s">
+      <c r="C16" s="143"/>
+      <c r="D16" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="145"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="145"/>
-      <c r="X16" s="145"/>
-      <c r="Y16" s="145"/>
-      <c r="Z16" s="145"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
       <c r="AA16" s="63"/>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="140"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="140"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="145"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="145"/>
-      <c r="V18" s="145"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="145"/>
-      <c r="Y18" s="145"/>
-      <c r="Z18" s="145"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="143" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="147" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="143"/>
-      <c r="W19" s="143"/>
-      <c r="X19" s="143"/>
-      <c r="Y19" s="143"/>
-      <c r="Z19" s="143"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
     </row>
     <row r="20" spans="2:26">
-      <c r="B20" s="122"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="143"/>
-      <c r="Y20" s="143"/>
-      <c r="Z20" s="143"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
     </row>
     <row r="21" spans="2:26">
-      <c r="B21" s="122"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="143"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="143"/>
-      <c r="W21" s="143"/>
-      <c r="X21" s="143"/>
-      <c r="Y21" s="143"/>
-      <c r="Z21" s="143"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
     </row>
     <row r="22" spans="2:26">
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="142" t="s">
+      <c r="C22" s="143"/>
+      <c r="D22" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="142"/>
-      <c r="W22" s="142"/>
-      <c r="X22" s="142"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="146"/>
+      <c r="T22" s="146"/>
+      <c r="U22" s="146"/>
+      <c r="V22" s="146"/>
+      <c r="W22" s="146"/>
+      <c r="X22" s="146"/>
+      <c r="Y22" s="146"/>
+      <c r="Z22" s="146"/>
     </row>
     <row r="23" spans="2:26">
-      <c r="B23" s="140"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="142"/>
-      <c r="W23" s="142"/>
-      <c r="X23" s="142"/>
-      <c r="Y23" s="142"/>
-      <c r="Z23" s="142"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="146"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="146"/>
+      <c r="X23" s="146"/>
+      <c r="Y23" s="146"/>
+      <c r="Z23" s="146"/>
     </row>
     <row r="24" spans="2:26">
-      <c r="B24" s="140"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="142"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="142"/>
-      <c r="W24" s="142"/>
-      <c r="X24" s="142"/>
-      <c r="Y24" s="142"/>
-      <c r="Z24" s="142"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="146"/>
+      <c r="T24" s="146"/>
+      <c r="U24" s="146"/>
+      <c r="V24" s="146"/>
+      <c r="W24" s="146"/>
+      <c r="X24" s="146"/>
+      <c r="Y24" s="146"/>
+      <c r="Z24" s="146"/>
     </row>
     <row r="25" spans="2:26">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="123" t="s">
+      <c r="C25" s="125"/>
+      <c r="D25" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="143"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="143"/>
-      <c r="X25" s="143"/>
-      <c r="Y25" s="143"/>
-      <c r="Z25" s="143"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="122"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="147"/>
     </row>
     <row r="27" spans="2:26">
-      <c r="B27" s="122"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="143"/>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="143"/>
-      <c r="Z27" s="143"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="141" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="141" t="s">
+      <c r="C28" s="143"/>
+      <c r="D28" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="142"/>
-      <c r="S28" s="142"/>
-      <c r="T28" s="142"/>
-      <c r="U28" s="142"/>
-      <c r="V28" s="142"/>
-      <c r="W28" s="142"/>
-      <c r="X28" s="142"/>
-      <c r="Y28" s="142"/>
-      <c r="Z28" s="142"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="146"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="146"/>
+      <c r="Z28" s="146"/>
     </row>
     <row r="29" spans="2:26">
-      <c r="B29" s="140"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="142"/>
-      <c r="S29" s="142"/>
-      <c r="T29" s="142"/>
-      <c r="U29" s="142"/>
-      <c r="V29" s="142"/>
-      <c r="W29" s="142"/>
-      <c r="X29" s="142"/>
-      <c r="Y29" s="142"/>
-      <c r="Z29" s="142"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="146"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
     </row>
     <row r="30" spans="2:26">
-      <c r="B30" s="140"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="142"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="142"/>
-      <c r="W30" s="142"/>
-      <c r="X30" s="142"/>
-      <c r="Y30" s="142"/>
-      <c r="Z30" s="142"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="146"/>
+      <c r="X30" s="146"/>
+      <c r="Y30" s="146"/>
+      <c r="Z30" s="146"/>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="123" t="s">
+      <c r="C31" s="125"/>
+      <c r="D31" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="143"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="143"/>
-      <c r="W31" s="143"/>
-      <c r="X31" s="143"/>
-      <c r="Y31" s="143"/>
-      <c r="Z31" s="143"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
     </row>
     <row r="32" spans="2:26">
-      <c r="B32" s="122"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143"/>
-      <c r="O32" s="143"/>
-      <c r="P32" s="143"/>
-      <c r="Q32" s="143"/>
-      <c r="R32" s="143"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="143"/>
-      <c r="W32" s="143"/>
-      <c r="X32" s="143"/>
-      <c r="Y32" s="143"/>
-      <c r="Z32" s="143"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
     </row>
     <row r="33" spans="2:26">
-      <c r="B33" s="122"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="143"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
-      <c r="Q33" s="143"/>
-      <c r="R33" s="143"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="143"/>
-      <c r="W33" s="143"/>
-      <c r="X33" s="143"/>
-      <c r="Y33" s="143"/>
-      <c r="Z33" s="143"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="147"/>
     </row>
     <row r="34" spans="2:26">
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="142" t="s">
+      <c r="C34" s="143"/>
+      <c r="D34" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="144"/>
-      <c r="S34" s="144"/>
-      <c r="T34" s="144"/>
-      <c r="U34" s="144"/>
-      <c r="V34" s="144"/>
-      <c r="W34" s="144"/>
-      <c r="X34" s="144"/>
-      <c r="Y34" s="144"/>
-      <c r="Z34" s="144"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="148"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="148"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="148"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
+      <c r="Y34" s="148"/>
+      <c r="Z34" s="148"/>
     </row>
     <row r="35" spans="2:26">
-      <c r="B35" s="140"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="144"/>
-      <c r="S35" s="144"/>
-      <c r="T35" s="144"/>
-      <c r="U35" s="144"/>
-      <c r="V35" s="144"/>
-      <c r="W35" s="144"/>
-      <c r="X35" s="144"/>
-      <c r="Y35" s="144"/>
-      <c r="Z35" s="144"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="148"/>
+      <c r="S35" s="148"/>
+      <c r="T35" s="148"/>
+      <c r="U35" s="148"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="148"/>
+      <c r="Y35" s="148"/>
+      <c r="Z35" s="148"/>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="140"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="144"/>
-      <c r="S36" s="144"/>
-      <c r="T36" s="144"/>
-      <c r="U36" s="144"/>
-      <c r="V36" s="144"/>
-      <c r="W36" s="144"/>
-      <c r="X36" s="144"/>
-      <c r="Y36" s="144"/>
-      <c r="Z36" s="144"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
+      <c r="Q36" s="148"/>
+      <c r="R36" s="148"/>
+      <c r="S36" s="148"/>
+      <c r="T36" s="148"/>
+      <c r="U36" s="148"/>
+      <c r="V36" s="148"/>
+      <c r="W36" s="148"/>
+      <c r="X36" s="148"/>
+      <c r="Y36" s="148"/>
+      <c r="Z36" s="148"/>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="123" t="s">
+      <c r="C37" s="125"/>
+      <c r="D37" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="124"/>
-      <c r="S37" s="124"/>
-      <c r="T37" s="124"/>
-      <c r="U37" s="124"/>
-      <c r="V37" s="124"/>
-      <c r="W37" s="124"/>
-      <c r="X37" s="124"/>
-      <c r="Y37" s="124"/>
-      <c r="Z37" s="124"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="128"/>
+      <c r="W37" s="128"/>
+      <c r="X37" s="128"/>
+      <c r="Y37" s="128"/>
+      <c r="Z37" s="128"/>
     </row>
     <row r="38" spans="2:26">
-      <c r="B38" s="122"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="124"/>
-      <c r="N38" s="124"/>
-      <c r="O38" s="124"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="124"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="124"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="124"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="128"/>
+      <c r="S38" s="128"/>
+      <c r="T38" s="128"/>
+      <c r="U38" s="128"/>
+      <c r="V38" s="128"/>
+      <c r="W38" s="128"/>
+      <c r="X38" s="128"/>
+      <c r="Y38" s="128"/>
+      <c r="Z38" s="128"/>
     </row>
     <row r="39" spans="2:26">
-      <c r="B39" s="122"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="124"/>
-      <c r="S39" s="124"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="124"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="128"/>
+      <c r="U39" s="128"/>
+      <c r="V39" s="128"/>
+      <c r="W39" s="128"/>
+      <c r="X39" s="128"/>
+      <c r="Y39" s="128"/>
+      <c r="Z39" s="128"/>
     </row>
     <row r="40" spans="2:26" ht="14.4" customHeight="1">
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="136" t="s">
+      <c r="C40" s="142"/>
+      <c r="D40" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="136"/>
-      <c r="U40" s="136"/>
-      <c r="V40" s="136"/>
-      <c r="W40" s="136"/>
-      <c r="X40" s="136"/>
-      <c r="Y40" s="136"/>
-      <c r="Z40" s="136"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="140"/>
+      <c r="R40" s="140"/>
+      <c r="S40" s="140"/>
+      <c r="T40" s="140"/>
+      <c r="U40" s="140"/>
+      <c r="V40" s="140"/>
+      <c r="W40" s="140"/>
+      <c r="X40" s="140"/>
+      <c r="Y40" s="140"/>
+      <c r="Z40" s="140"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="B41" s="137"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="136"/>
-      <c r="P41" s="136"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="136"/>
-      <c r="T41" s="136"/>
-      <c r="U41" s="136"/>
-      <c r="V41" s="136"/>
-      <c r="W41" s="136"/>
-      <c r="X41" s="136"/>
-      <c r="Y41" s="136"/>
-      <c r="Z41" s="136"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="140"/>
+      <c r="Q41" s="140"/>
+      <c r="R41" s="140"/>
+      <c r="S41" s="140"/>
+      <c r="T41" s="140"/>
+      <c r="U41" s="140"/>
+      <c r="V41" s="140"/>
+      <c r="W41" s="140"/>
+      <c r="X41" s="140"/>
+      <c r="Y41" s="140"/>
+      <c r="Z41" s="140"/>
     </row>
     <row r="42" spans="2:26">
-      <c r="B42" s="137"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="136"/>
-      <c r="S42" s="136"/>
-      <c r="T42" s="136"/>
-      <c r="U42" s="136"/>
-      <c r="V42" s="136"/>
-      <c r="W42" s="136"/>
-      <c r="X42" s="136"/>
-      <c r="Y42" s="136"/>
-      <c r="Z42" s="136"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="140"/>
+      <c r="Q42" s="140"/>
+      <c r="R42" s="140"/>
+      <c r="S42" s="140"/>
+      <c r="T42" s="140"/>
+      <c r="U42" s="140"/>
+      <c r="V42" s="140"/>
+      <c r="W42" s="140"/>
+      <c r="X42" s="140"/>
+      <c r="Y42" s="140"/>
+      <c r="Z42" s="140"/>
     </row>
     <row r="43" spans="2:26">
-      <c r="B43" s="137"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="136"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="136"/>
-      <c r="O43" s="136"/>
-      <c r="P43" s="136"/>
-      <c r="Q43" s="136"/>
-      <c r="R43" s="136"/>
-      <c r="S43" s="136"/>
-      <c r="T43" s="136"/>
-      <c r="U43" s="136"/>
-      <c r="V43" s="136"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="136"/>
-      <c r="Z43" s="136"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="140"/>
+      <c r="N43" s="140"/>
+      <c r="O43" s="140"/>
+      <c r="P43" s="140"/>
+      <c r="Q43" s="140"/>
+      <c r="R43" s="140"/>
+      <c r="S43" s="140"/>
+      <c r="T43" s="140"/>
+      <c r="U43" s="140"/>
+      <c r="V43" s="140"/>
+      <c r="W43" s="140"/>
+      <c r="X43" s="140"/>
+      <c r="Y43" s="140"/>
+      <c r="Z43" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="22">
